--- a/[3] Test Input/RESULTS_TT_MERGED_EXP.xlsx
+++ b/[3] Test Input/RESULTS_TT_MERGED_EXP.xlsx
@@ -512,31 +512,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>28.57142857142857</v>
+        <v>26.71428571428572</v>
       </c>
       <c r="F2" t="n">
-        <v>17.23809523809524</v>
+        <v>24.71428571428572</v>
       </c>
       <c r="G2" t="n">
-        <v>65.45238095238095</v>
+        <v>28.28571428571428</v>
       </c>
       <c r="H2" t="n">
-        <v>65.84714285714286</v>
+        <v>27.70012227301461</v>
       </c>
       <c r="I2" t="n">
-        <v>59.14857142857142</v>
+        <v>26.2563469821996</v>
       </c>
       <c r="J2" t="n">
-        <v>26.41642857142858</v>
+        <v>9.146666666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>167.8352380952381</v>
+        <v>31.80023809523809</v>
       </c>
       <c r="L2" t="n">
-        <v>7147.117142857142</v>
+        <v>1139.66</v>
       </c>
     </row>
     <row r="3">
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.714285714285714</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>33.57142857142857</v>
+        <v>28.71428571428572</v>
       </c>
       <c r="F3" t="n">
-        <v>23.85714285714286</v>
+        <v>26.71428571428572</v>
       </c>
       <c r="G3" t="n">
-        <v>90.5</v>
+        <v>40.21428571428572</v>
       </c>
       <c r="H3" t="n">
-        <v>88.36357142857142</v>
+        <v>38.69973183970904</v>
       </c>
       <c r="I3" t="n">
-        <v>79.76571428571428</v>
+        <v>35.6661163454714</v>
       </c>
       <c r="J3" t="n">
-        <v>36.84857142857143</v>
+        <v>13.11428571428571</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4028571428571</v>
+        <v>29.21642857142857</v>
       </c>
       <c r="L3" t="n">
-        <v>9895.018571428573</v>
+        <v>1692.806428571429</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.71428571428571</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>33.71428571428572</v>
+        <v>28.28571428571428</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>26.28571428571428</v>
       </c>
       <c r="G4" t="n">
-        <v>96.78571428571429</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>96.86857142857141</v>
+        <v>38.30708974233044</v>
       </c>
       <c r="I4" t="n">
-        <v>88.48571428571428</v>
+        <v>37.15199286570692</v>
       </c>
       <c r="J4" t="n">
-        <v>41.85428571428572</v>
+        <v>12.93857142857143</v>
       </c>
       <c r="K4" t="n">
-        <v>197.6928571428571</v>
+        <v>29.47285714285714</v>
       </c>
       <c r="L4" t="n">
-        <v>12880.15142857143</v>
+        <v>1475.167142857143</v>
       </c>
     </row>
     <row r="5">
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>30.22222222222222</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="F5" t="n">
-        <v>19.55555555555556</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="G5" t="n">
-        <v>68</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>68.41</v>
+        <v>28.90545258582383</v>
       </c>
       <c r="I5" t="n">
-        <v>60.47555555555555</v>
+        <v>26.68719029817827</v>
       </c>
       <c r="J5" t="n">
-        <v>26.31666666666667</v>
+        <v>9.934444444444445</v>
       </c>
       <c r="K5" t="n">
-        <v>124.8822222222222</v>
+        <v>36.44444444444444</v>
       </c>
       <c r="L5" t="n">
-        <v>6191.664444444445</v>
+        <v>1281.06</v>
       </c>
     </row>
     <row r="6">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.666666666666666</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>30.66666666666667</v>
+        <v>29.55555555555556</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>27.55555555555556</v>
       </c>
       <c r="G6" t="n">
-        <v>133.7222222222222</v>
+        <v>59.16666666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>133.9166666666667</v>
+        <v>58.25625939188106</v>
       </c>
       <c r="I6" t="n">
-        <v>123.4316666666667</v>
+        <v>55.03040718708564</v>
       </c>
       <c r="J6" t="n">
-        <v>50.63388888888889</v>
+        <v>18.40388888888889</v>
       </c>
       <c r="K6" t="n">
-        <v>128.4011111111111</v>
+        <v>27.17</v>
       </c>
       <c r="L6" t="n">
-        <v>13032.63444444444</v>
+        <v>2111.336111111111</v>
       </c>
     </row>
     <row r="7">
@@ -732,31 +732,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9.75</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>29.5</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>19.75</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>111.3125</v>
+        <v>44.625</v>
       </c>
       <c r="H7" t="n">
-        <v>111.673125</v>
+        <v>44.03935082188345</v>
       </c>
       <c r="I7" t="n">
-        <v>98.44750000000001</v>
+        <v>41.81101174700325</v>
       </c>
       <c r="J7" t="n">
-        <v>45.794375</v>
+        <v>14.93125</v>
       </c>
       <c r="K7" t="n">
-        <v>155.031875</v>
+        <v>30.846875</v>
       </c>
       <c r="L7" t="n">
-        <v>13145.564375</v>
+        <v>1684.246875</v>
       </c>
     </row>
     <row r="8">
@@ -776,31 +776,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.71428571428571</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="E8" t="n">
-        <v>29.28571428571428</v>
+        <v>26.28571428571428</v>
       </c>
       <c r="F8" t="n">
-        <v>17.57142857142857</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>134.7142857142857</v>
+        <v>61.85714285714285</v>
       </c>
       <c r="H8" t="n">
-        <v>134.7642857142857</v>
+        <v>60.73565193713626</v>
       </c>
       <c r="I8" t="n">
-        <v>124.6085714285714</v>
+        <v>57.08282907599432</v>
       </c>
       <c r="J8" t="n">
-        <v>56.91714285714286</v>
+        <v>20.38714285714286</v>
       </c>
       <c r="K8" t="n">
-        <v>161.6435714285714</v>
+        <v>39.33714285714286</v>
       </c>
       <c r="L8" t="n">
-        <v>16368.36285714286</v>
+        <v>2955.333571428571</v>
       </c>
     </row>
     <row r="9">
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="E9" t="n">
-        <v>33.5</v>
+        <v>22.625</v>
       </c>
       <c r="F9" t="n">
-        <v>24.5</v>
+        <v>20.375</v>
       </c>
       <c r="G9" t="n">
-        <v>278.625</v>
+        <v>139.125</v>
       </c>
       <c r="H9" t="n">
-        <v>276.8775</v>
+        <v>135.2678062433222</v>
       </c>
       <c r="I9" t="n">
-        <v>254.85125</v>
+        <v>120.6032075682825</v>
       </c>
       <c r="J9" t="n">
-        <v>101.423125</v>
+        <v>46.564375</v>
       </c>
       <c r="K9" t="n">
-        <v>117.86875</v>
+        <v>38.98625</v>
       </c>
       <c r="L9" t="n">
-        <v>24165.876875</v>
+        <v>5873.588125</v>
       </c>
     </row>
     <row r="10">
@@ -864,31 +864,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10.25</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>33.125</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="F10" t="n">
-        <v>22.875</v>
+        <v>23.11111111111111</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3125</v>
+        <v>82.66666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>191.488125</v>
+        <v>78.34936631659218</v>
       </c>
       <c r="I10" t="n">
-        <v>167.93125</v>
+        <v>71.05259975800946</v>
       </c>
       <c r="J10" t="n">
-        <v>79.390625</v>
+        <v>28.465</v>
       </c>
       <c r="K10" t="n">
-        <v>154.361875</v>
+        <v>48.65611111111111</v>
       </c>
       <c r="L10" t="n">
-        <v>20433.32125</v>
+        <v>4012.858333333333</v>
       </c>
     </row>
     <row r="11">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.125</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>32.5</v>
+        <v>20.75</v>
       </c>
       <c r="F11" t="n">
-        <v>22.375</v>
+        <v>18.75</v>
       </c>
       <c r="G11" t="n">
-        <v>165.9375</v>
+        <v>72.5625</v>
       </c>
       <c r="H11" t="n">
-        <v>158.874375</v>
+        <v>69.38420528106347</v>
       </c>
       <c r="I11" t="n">
-        <v>145.815625</v>
+        <v>64.84341030730513</v>
       </c>
       <c r="J11" t="n">
-        <v>66.510625</v>
+        <v>24.641875</v>
       </c>
       <c r="K11" t="n">
-        <v>125.0475</v>
+        <v>52.6875</v>
       </c>
       <c r="L11" t="n">
-        <v>15489.34625</v>
+        <v>3712.675625</v>
       </c>
     </row>
     <row r="12">
@@ -952,31 +952,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>21.71428571428572</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>19.71428571428572</v>
       </c>
       <c r="G12" t="n">
-        <v>249</v>
+        <v>113.5</v>
       </c>
       <c r="H12" t="n">
-        <v>249.0742857142857</v>
+        <v>109.8492209559797</v>
       </c>
       <c r="I12" t="n">
-        <v>212.5921428571428</v>
+        <v>99.74203082017632</v>
       </c>
       <c r="J12" t="n">
-        <v>92.14357142857143</v>
+        <v>38.84857142857143</v>
       </c>
       <c r="K12" t="n">
-        <v>84.25142857142858</v>
+        <v>41.81714285714286</v>
       </c>
       <c r="L12" t="n">
-        <v>18264.09428571429</v>
+        <v>5303.582142857143</v>
       </c>
     </row>
     <row r="13">
@@ -996,31 +996,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>32.125</v>
+        <v>19.875</v>
       </c>
       <c r="F13" t="n">
-        <v>22.125</v>
+        <v>17.875</v>
       </c>
       <c r="G13" t="n">
-        <v>198.5625</v>
+        <v>93.6875</v>
       </c>
       <c r="H13" t="n">
-        <v>196.621875</v>
+        <v>90.43822419332901</v>
       </c>
       <c r="I13" t="n">
-        <v>179.75125</v>
+        <v>78.52171441060418</v>
       </c>
       <c r="J13" t="n">
-        <v>80.00812500000001</v>
+        <v>31.6375</v>
       </c>
       <c r="K13" t="n">
-        <v>125.6175</v>
+        <v>44.375</v>
       </c>
       <c r="L13" t="n">
-        <v>19100.43375</v>
+        <v>4236.314375</v>
       </c>
     </row>
     <row r="14">
@@ -1040,31 +1040,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>32.375</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>22.875</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>106.5</v>
+        <v>55.71428571428572</v>
       </c>
       <c r="H14" t="n">
-        <v>105.198125</v>
+        <v>51.71622195979364</v>
       </c>
       <c r="I14" t="n">
-        <v>97.839375</v>
+        <v>46.39686639016706</v>
       </c>
       <c r="J14" t="n">
-        <v>41.486875</v>
+        <v>18.64357142857143</v>
       </c>
       <c r="K14" t="n">
-        <v>121.74625</v>
+        <v>52.03714285714285</v>
       </c>
       <c r="L14" t="n">
-        <v>9708.01125</v>
+        <v>2801.228571428571</v>
       </c>
     </row>
     <row r="15">
@@ -1084,31 +1084,31 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.75</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>23.5</v>
+        <v>21.41666666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>11.75</v>
+        <v>19.41666666666667</v>
       </c>
       <c r="G15" t="n">
-        <v>135.9166666666667</v>
+        <v>77.79166666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>136.1133333333333</v>
+        <v>73.63181567039361</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7420833333333</v>
+        <v>70.53077236439498</v>
       </c>
       <c r="J15" t="n">
-        <v>42.82333333333333</v>
+        <v>23.57375</v>
       </c>
       <c r="K15" t="n">
-        <v>63.51666666666667</v>
+        <v>38.43458333333334</v>
       </c>
       <c r="L15" t="n">
-        <v>7768.971666666666</v>
+        <v>3395.944166666667</v>
       </c>
     </row>
     <row r="16">
@@ -1128,31 +1128,31 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>29.4</v>
+        <v>25.2</v>
       </c>
       <c r="F16" t="n">
-        <v>19.4</v>
+        <v>23.2</v>
       </c>
       <c r="G16" t="n">
-        <v>149.8</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>150.07</v>
+        <v>76.17447109125018</v>
       </c>
       <c r="I16" t="n">
-        <v>138.334</v>
+        <v>71.03048276385255</v>
       </c>
       <c r="J16" t="n">
-        <v>43.985</v>
+        <v>25.185</v>
       </c>
       <c r="K16" t="n">
-        <v>46.726</v>
+        <v>32.05</v>
       </c>
       <c r="L16" t="n">
-        <v>7865.425999999999</v>
+        <v>2856.275</v>
       </c>
     </row>
     <row r="17">
@@ -1172,31 +1172,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10.5</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>28.25</v>
       </c>
       <c r="F17" t="n">
-        <v>18.5</v>
+        <v>26.25</v>
       </c>
       <c r="G17" t="n">
-        <v>79.4375</v>
+        <v>34.5</v>
       </c>
       <c r="H17" t="n">
-        <v>79.730625</v>
+        <v>33.60828117910528</v>
       </c>
       <c r="I17" t="n">
-        <v>68.83125</v>
+        <v>32.78394897910306</v>
       </c>
       <c r="J17" t="n">
-        <v>31.751875</v>
+        <v>10.950625</v>
       </c>
       <c r="K17" t="n">
-        <v>150.763125</v>
+        <v>31.924375</v>
       </c>
       <c r="L17" t="n">
-        <v>8334.363125</v>
+        <v>1269.42125</v>
       </c>
     </row>
     <row r="18">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="E18" t="n">
-        <v>29.66666666666667</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>19.66666666666667</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="G18" t="n">
-        <v>144.4444444444445</v>
+        <v>58.72222222222222</v>
       </c>
       <c r="H18" t="n">
-        <v>144.93</v>
+        <v>56.95975018950916</v>
       </c>
       <c r="I18" t="n">
-        <v>129.45</v>
+        <v>55.71519283173837</v>
       </c>
       <c r="J18" t="n">
-        <v>59.21833333333333</v>
+        <v>20.34777777777778</v>
       </c>
       <c r="K18" t="n">
-        <v>125.4611111111111</v>
+        <v>33.19388888888889</v>
       </c>
       <c r="L18" t="n">
-        <v>15320.04833333333</v>
+        <v>2517.628333333333</v>
       </c>
     </row>
     <row r="19">
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>32.22222222222222</v>
+        <v>29.44444444444444</v>
       </c>
       <c r="F19" t="n">
-        <v>22.22222222222222</v>
+        <v>27.44444444444444</v>
       </c>
       <c r="G19" t="n">
-        <v>140.1111111111111</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="H19" t="n">
-        <v>135.4261111111111</v>
+        <v>54.59687883261481</v>
       </c>
       <c r="I19" t="n">
-        <v>127.4722222222222</v>
+        <v>53.22809282792924</v>
       </c>
       <c r="J19" t="n">
-        <v>52.97388888888889</v>
+        <v>17.86222222222222</v>
       </c>
       <c r="K19" t="n">
-        <v>108.1377777777778</v>
+        <v>29.45333333333333</v>
       </c>
       <c r="L19" t="n">
-        <v>11662.68888888889</v>
+        <v>1898.463333333333</v>
       </c>
     </row>
   </sheetData>

--- a/[3] Test Input/RESULTS_TT_MERGED_EXP.xlsx
+++ b/[3] Test Input/RESULTS_TT_MERGED_EXP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,40 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -512,30 +502,24 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>26.71428571428572</v>
       </c>
       <c r="E2" t="n">
-        <v>26.71428571428572</v>
+        <v>28.28571428571428</v>
       </c>
       <c r="F2" t="n">
-        <v>24.71428571428572</v>
+        <v>27.70012227301461</v>
       </c>
       <c r="G2" t="n">
-        <v>28.28571428571428</v>
+        <v>26.2563469821996</v>
       </c>
       <c r="H2" t="n">
-        <v>27.70012227301461</v>
+        <v>9.146666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>26.2563469821996</v>
+        <v>31.80023809523809</v>
       </c>
       <c r="J2" t="n">
-        <v>9.146666666666667</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.80023809523809</v>
-      </c>
-      <c r="L2" t="n">
         <v>1139.66</v>
       </c>
     </row>
@@ -556,30 +540,24 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>28.71428571428572</v>
       </c>
       <c r="E3" t="n">
-        <v>28.71428571428572</v>
+        <v>40.21428571428572</v>
       </c>
       <c r="F3" t="n">
-        <v>26.71428571428572</v>
+        <v>38.69973183970904</v>
       </c>
       <c r="G3" t="n">
-        <v>40.21428571428572</v>
+        <v>35.6661163454714</v>
       </c>
       <c r="H3" t="n">
-        <v>38.69973183970904</v>
+        <v>13.11428571428571</v>
       </c>
       <c r="I3" t="n">
-        <v>35.6661163454714</v>
+        <v>29.21642857142857</v>
       </c>
       <c r="J3" t="n">
-        <v>13.11428571428571</v>
-      </c>
-      <c r="K3" t="n">
-        <v>29.21642857142857</v>
-      </c>
-      <c r="L3" t="n">
         <v>1692.806428571429</v>
       </c>
     </row>
@@ -600,30 +578,24 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>28.28571428571428</v>
       </c>
       <c r="E4" t="n">
-        <v>28.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>26.28571428571428</v>
+        <v>38.30708974233044</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>37.15199286570692</v>
       </c>
       <c r="H4" t="n">
-        <v>38.30708974233044</v>
+        <v>12.93857142857143</v>
       </c>
       <c r="I4" t="n">
-        <v>37.15199286570692</v>
+        <v>29.47285714285714</v>
       </c>
       <c r="J4" t="n">
-        <v>12.93857142857143</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29.47285714285714</v>
-      </c>
-      <c r="L4" t="n">
         <v>1475.167142857143</v>
       </c>
     </row>
@@ -644,30 +616,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="E5" t="n">
-        <v>25.55555555555556</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>23.55555555555556</v>
+        <v>28.90545258582383</v>
       </c>
       <c r="G5" t="n">
-        <v>29.33333333333333</v>
+        <v>26.68719029817827</v>
       </c>
       <c r="H5" t="n">
-        <v>28.90545258582383</v>
+        <v>9.934444444444445</v>
       </c>
       <c r="I5" t="n">
-        <v>26.68719029817827</v>
+        <v>36.44444444444444</v>
       </c>
       <c r="J5" t="n">
-        <v>9.934444444444445</v>
-      </c>
-      <c r="K5" t="n">
-        <v>36.44444444444444</v>
-      </c>
-      <c r="L5" t="n">
         <v>1281.06</v>
       </c>
     </row>
@@ -688,30 +654,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>29.55555555555556</v>
       </c>
       <c r="E6" t="n">
-        <v>29.55555555555556</v>
+        <v>59.16666666666666</v>
       </c>
       <c r="F6" t="n">
-        <v>27.55555555555556</v>
+        <v>58.25625939188106</v>
       </c>
       <c r="G6" t="n">
-        <v>59.16666666666666</v>
+        <v>55.03040718708564</v>
       </c>
       <c r="H6" t="n">
-        <v>58.25625939188106</v>
+        <v>18.40388888888889</v>
       </c>
       <c r="I6" t="n">
-        <v>55.03040718708564</v>
+        <v>27.17</v>
       </c>
       <c r="J6" t="n">
-        <v>18.40388888888889</v>
-      </c>
-      <c r="K6" t="n">
-        <v>27.17</v>
-      </c>
-      <c r="L6" t="n">
         <v>2111.336111111111</v>
       </c>
     </row>
@@ -732,30 +692,24 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>44.625</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>44.03935082188345</v>
       </c>
       <c r="G7" t="n">
-        <v>44.625</v>
+        <v>41.81101174700325</v>
       </c>
       <c r="H7" t="n">
-        <v>44.03935082188345</v>
+        <v>14.93125</v>
       </c>
       <c r="I7" t="n">
-        <v>41.81101174700325</v>
+        <v>30.846875</v>
       </c>
       <c r="J7" t="n">
-        <v>14.93125</v>
-      </c>
-      <c r="K7" t="n">
-        <v>30.846875</v>
-      </c>
-      <c r="L7" t="n">
         <v>1684.246875</v>
       </c>
     </row>
@@ -776,30 +730,24 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.285714285714286</v>
+        <v>26.28571428571428</v>
       </c>
       <c r="E8" t="n">
-        <v>26.28571428571428</v>
+        <v>61.85714285714285</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>60.73565193713626</v>
       </c>
       <c r="G8" t="n">
-        <v>61.85714285714285</v>
+        <v>57.08282907599432</v>
       </c>
       <c r="H8" t="n">
-        <v>60.73565193713626</v>
+        <v>20.38714285714286</v>
       </c>
       <c r="I8" t="n">
-        <v>57.08282907599432</v>
+        <v>39.33714285714286</v>
       </c>
       <c r="J8" t="n">
-        <v>20.38714285714286</v>
-      </c>
-      <c r="K8" t="n">
-        <v>39.33714285714286</v>
-      </c>
-      <c r="L8" t="n">
         <v>2955.333571428571</v>
       </c>
     </row>
@@ -820,30 +768,24 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.25</v>
+        <v>22.625</v>
       </c>
       <c r="E9" t="n">
-        <v>22.625</v>
+        <v>139.125</v>
       </c>
       <c r="F9" t="n">
-        <v>20.375</v>
+        <v>135.2678062433222</v>
       </c>
       <c r="G9" t="n">
-        <v>139.125</v>
+        <v>120.6032075682825</v>
       </c>
       <c r="H9" t="n">
-        <v>135.2678062433222</v>
+        <v>46.564375</v>
       </c>
       <c r="I9" t="n">
-        <v>120.6032075682825</v>
+        <v>38.98625</v>
       </c>
       <c r="J9" t="n">
-        <v>46.564375</v>
-      </c>
-      <c r="K9" t="n">
-        <v>38.98625</v>
-      </c>
-      <c r="L9" t="n">
         <v>5873.588125</v>
       </c>
     </row>
@@ -864,30 +806,24 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="E10" t="n">
-        <v>25.11111111111111</v>
+        <v>82.66666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>23.11111111111111</v>
+        <v>78.34936631659218</v>
       </c>
       <c r="G10" t="n">
-        <v>82.66666666666667</v>
+        <v>71.05259975800946</v>
       </c>
       <c r="H10" t="n">
-        <v>78.34936631659218</v>
+        <v>28.465</v>
       </c>
       <c r="I10" t="n">
-        <v>71.05259975800946</v>
+        <v>48.65611111111111</v>
       </c>
       <c r="J10" t="n">
-        <v>28.465</v>
-      </c>
-      <c r="K10" t="n">
-        <v>48.65611111111111</v>
-      </c>
-      <c r="L10" t="n">
         <v>4012.858333333333</v>
       </c>
     </row>
@@ -908,30 +844,24 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>20.75</v>
       </c>
       <c r="E11" t="n">
-        <v>20.75</v>
+        <v>72.5625</v>
       </c>
       <c r="F11" t="n">
-        <v>18.75</v>
+        <v>69.38420528106347</v>
       </c>
       <c r="G11" t="n">
-        <v>72.5625</v>
+        <v>64.84341030730513</v>
       </c>
       <c r="H11" t="n">
-        <v>69.38420528106347</v>
+        <v>24.641875</v>
       </c>
       <c r="I11" t="n">
-        <v>64.84341030730513</v>
+        <v>52.6875</v>
       </c>
       <c r="J11" t="n">
-        <v>24.641875</v>
-      </c>
-      <c r="K11" t="n">
-        <v>52.6875</v>
-      </c>
-      <c r="L11" t="n">
         <v>3712.675625</v>
       </c>
     </row>
@@ -952,30 +882,24 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>21.71428571428572</v>
       </c>
       <c r="E12" t="n">
-        <v>21.71428571428572</v>
+        <v>113.5</v>
       </c>
       <c r="F12" t="n">
-        <v>19.71428571428572</v>
+        <v>109.8492209559797</v>
       </c>
       <c r="G12" t="n">
-        <v>113.5</v>
+        <v>99.74203082017632</v>
       </c>
       <c r="H12" t="n">
-        <v>109.8492209559797</v>
+        <v>38.84857142857143</v>
       </c>
       <c r="I12" t="n">
-        <v>99.74203082017632</v>
+        <v>41.81714285714286</v>
       </c>
       <c r="J12" t="n">
-        <v>38.84857142857143</v>
-      </c>
-      <c r="K12" t="n">
-        <v>41.81714285714286</v>
-      </c>
-      <c r="L12" t="n">
         <v>5303.582142857143</v>
       </c>
     </row>
@@ -996,30 +920,24 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>19.875</v>
       </c>
       <c r="E13" t="n">
-        <v>19.875</v>
+        <v>93.6875</v>
       </c>
       <c r="F13" t="n">
-        <v>17.875</v>
+        <v>90.43822419332901</v>
       </c>
       <c r="G13" t="n">
-        <v>93.6875</v>
+        <v>78.52171441060418</v>
       </c>
       <c r="H13" t="n">
-        <v>90.43822419332901</v>
+        <v>31.6375</v>
       </c>
       <c r="I13" t="n">
-        <v>78.52171441060418</v>
+        <v>44.375</v>
       </c>
       <c r="J13" t="n">
-        <v>31.6375</v>
-      </c>
-      <c r="K13" t="n">
-        <v>44.375</v>
-      </c>
-      <c r="L13" t="n">
         <v>4236.314375</v>
       </c>
     </row>
@@ -1040,30 +958,24 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>55.71428571428572</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>51.71622195979364</v>
       </c>
       <c r="G14" t="n">
-        <v>55.71428571428572</v>
+        <v>46.39686639016706</v>
       </c>
       <c r="H14" t="n">
-        <v>51.71622195979364</v>
+        <v>18.64357142857143</v>
       </c>
       <c r="I14" t="n">
-        <v>46.39686639016706</v>
+        <v>52.03714285714285</v>
       </c>
       <c r="J14" t="n">
-        <v>18.64357142857143</v>
-      </c>
-      <c r="K14" t="n">
-        <v>52.03714285714285</v>
-      </c>
-      <c r="L14" t="n">
         <v>2801.228571428571</v>
       </c>
     </row>
@@ -1084,30 +996,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>21.41666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>21.41666666666667</v>
+        <v>77.79166666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>19.41666666666667</v>
+        <v>73.63181567039361</v>
       </c>
       <c r="G15" t="n">
-        <v>77.79166666666667</v>
+        <v>70.53077236439498</v>
       </c>
       <c r="H15" t="n">
-        <v>73.63181567039361</v>
+        <v>23.57375</v>
       </c>
       <c r="I15" t="n">
-        <v>70.53077236439498</v>
+        <v>38.43458333333334</v>
       </c>
       <c r="J15" t="n">
-        <v>23.57375</v>
-      </c>
-      <c r="K15" t="n">
-        <v>38.43458333333334</v>
-      </c>
-      <c r="L15" t="n">
         <v>3395.944166666667</v>
       </c>
     </row>
@@ -1128,30 +1034,24 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>25.2</v>
       </c>
       <c r="E16" t="n">
-        <v>25.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>23.2</v>
+        <v>76.17447109125018</v>
       </c>
       <c r="G16" t="n">
-        <v>79.09999999999999</v>
+        <v>71.03048276385255</v>
       </c>
       <c r="H16" t="n">
-        <v>76.17447109125018</v>
+        <v>25.185</v>
       </c>
       <c r="I16" t="n">
-        <v>71.03048276385255</v>
+        <v>32.05</v>
       </c>
       <c r="J16" t="n">
-        <v>25.185</v>
-      </c>
-      <c r="K16" t="n">
-        <v>32.05</v>
-      </c>
-      <c r="L16" t="n">
         <v>2856.275</v>
       </c>
     </row>
@@ -1172,30 +1072,24 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>28.25</v>
       </c>
       <c r="E17" t="n">
-        <v>28.25</v>
+        <v>34.5</v>
       </c>
       <c r="F17" t="n">
-        <v>26.25</v>
+        <v>33.60828117910528</v>
       </c>
       <c r="G17" t="n">
-        <v>34.5</v>
+        <v>32.78394897910306</v>
       </c>
       <c r="H17" t="n">
-        <v>33.60828117910528</v>
+        <v>10.950625</v>
       </c>
       <c r="I17" t="n">
-        <v>32.78394897910306</v>
+        <v>31.924375</v>
       </c>
       <c r="J17" t="n">
-        <v>10.950625</v>
-      </c>
-      <c r="K17" t="n">
-        <v>31.924375</v>
-      </c>
-      <c r="L17" t="n">
         <v>1269.42125</v>
       </c>
     </row>
@@ -1216,30 +1110,24 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.222222222222222</v>
+        <v>30</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>58.72222222222222</v>
       </c>
       <c r="F18" t="n">
-        <v>27.77777777777778</v>
+        <v>56.95975018950916</v>
       </c>
       <c r="G18" t="n">
-        <v>58.72222222222222</v>
+        <v>55.71519283173837</v>
       </c>
       <c r="H18" t="n">
-        <v>56.95975018950916</v>
+        <v>20.34777777777778</v>
       </c>
       <c r="I18" t="n">
-        <v>55.71519283173837</v>
+        <v>33.19388888888889</v>
       </c>
       <c r="J18" t="n">
-        <v>20.34777777777778</v>
-      </c>
-      <c r="K18" t="n">
-        <v>33.19388888888889</v>
-      </c>
-      <c r="L18" t="n">
         <v>2517.628333333333</v>
       </c>
     </row>
@@ -1260,30 +1148,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>29.44444444444444</v>
       </c>
       <c r="E19" t="n">
-        <v>29.44444444444444</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F19" t="n">
-        <v>27.44444444444444</v>
+        <v>54.59687883261481</v>
       </c>
       <c r="G19" t="n">
-        <v>55.55555555555556</v>
+        <v>53.22809282792924</v>
       </c>
       <c r="H19" t="n">
-        <v>54.59687883261481</v>
+        <v>17.86222222222222</v>
       </c>
       <c r="I19" t="n">
-        <v>53.22809282792924</v>
+        <v>29.45333333333333</v>
       </c>
       <c r="J19" t="n">
-        <v>17.86222222222222</v>
-      </c>
-      <c r="K19" t="n">
-        <v>29.45333333333333</v>
-      </c>
-      <c r="L19" t="n">
         <v>1898.463333333333</v>
       </c>
     </row>

--- a/[3] Test Input/RESULTS_TT_MERGED_EXP.xlsx
+++ b/[3] Test Input/RESULTS_TT_MERGED_EXP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,6 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -517,10 +512,7 @@
         <v>9.146666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>31.80023809523809</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1139.66</v>
+        <v>748.5897619047619</v>
       </c>
     </row>
     <row r="3">
@@ -555,10 +547,7 @@
         <v>13.11428571428571</v>
       </c>
       <c r="I3" t="n">
-        <v>29.21642857142857</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1692.806428571429</v>
+        <v>1109.864285714286</v>
       </c>
     </row>
     <row r="4">
@@ -593,10 +582,7 @@
         <v>12.93857142857143</v>
       </c>
       <c r="I4" t="n">
-        <v>29.47285714285714</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1475.167142857143</v>
+        <v>922.3078571428571</v>
       </c>
     </row>
     <row r="5">
@@ -631,10 +617,7 @@
         <v>9.934444444444445</v>
       </c>
       <c r="I5" t="n">
-        <v>36.44444444444444</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1281.06</v>
+        <v>809.0433333333334</v>
       </c>
     </row>
     <row r="6">
@@ -669,10 +652,7 @@
         <v>18.40388888888889</v>
       </c>
       <c r="I6" t="n">
-        <v>27.17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2111.336111111111</v>
+        <v>1322.192222222222</v>
       </c>
     </row>
     <row r="7">
@@ -707,10 +687,7 @@
         <v>14.93125</v>
       </c>
       <c r="I7" t="n">
-        <v>30.846875</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1684.246875</v>
+        <v>1083.4275</v>
       </c>
     </row>
     <row r="8">
@@ -745,10 +722,7 @@
         <v>20.38714285714286</v>
       </c>
       <c r="I8" t="n">
-        <v>39.33714285714286</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2955.333571428571</v>
+        <v>1870.345</v>
       </c>
     </row>
     <row r="9">
@@ -783,10 +757,7 @@
         <v>46.564375</v>
       </c>
       <c r="I9" t="n">
-        <v>38.98625</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5873.588125</v>
+        <v>4044.15</v>
       </c>
     </row>
     <row r="10">
@@ -821,10 +792,7 @@
         <v>28.465</v>
       </c>
       <c r="I10" t="n">
-        <v>48.65611111111111</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4012.858333333333</v>
+        <v>2651.818333333333</v>
       </c>
     </row>
     <row r="11">
@@ -859,10 +827,7 @@
         <v>24.641875</v>
       </c>
       <c r="I11" t="n">
-        <v>52.6875</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3712.675625</v>
+        <v>2371.900625</v>
       </c>
     </row>
     <row r="12">
@@ -897,10 +862,7 @@
         <v>38.84857142857143</v>
       </c>
       <c r="I12" t="n">
-        <v>41.81714285714286</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5303.582142857143</v>
+        <v>3467.550714285714</v>
       </c>
     </row>
     <row r="13">
@@ -935,10 +897,7 @@
         <v>31.6375</v>
       </c>
       <c r="I13" t="n">
-        <v>44.375</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4236.314375</v>
+        <v>2854.0575</v>
       </c>
     </row>
     <row r="14">
@@ -973,10 +932,7 @@
         <v>18.64357142857143</v>
       </c>
       <c r="I14" t="n">
-        <v>52.03714285714285</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2801.228571428571</v>
+        <v>1842.669285714286</v>
       </c>
     </row>
     <row r="15">
@@ -1011,10 +967,7 @@
         <v>23.57375</v>
       </c>
       <c r="I15" t="n">
-        <v>38.43458333333334</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3395.944166666667</v>
+        <v>2176.14875</v>
       </c>
     </row>
     <row r="16">
@@ -1049,10 +1002,7 @@
         <v>25.185</v>
       </c>
       <c r="I16" t="n">
-        <v>32.05</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2856.275</v>
+        <v>1949.491</v>
       </c>
     </row>
     <row r="17">
@@ -1087,10 +1037,7 @@
         <v>10.950625</v>
       </c>
       <c r="I17" t="n">
-        <v>31.924375</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1269.42125</v>
+        <v>825.50625</v>
       </c>
     </row>
     <row r="18">
@@ -1125,10 +1072,7 @@
         <v>20.34777777777778</v>
       </c>
       <c r="I18" t="n">
-        <v>33.19388888888889</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2517.628333333333</v>
+        <v>1569.104444444444</v>
       </c>
     </row>
     <row r="19">
@@ -1163,10 +1107,7 @@
         <v>17.86222222222222</v>
       </c>
       <c r="I19" t="n">
-        <v>29.45333333333333</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1898.463333333333</v>
+        <v>1186.163888888889</v>
       </c>
     </row>
   </sheetData>
